--- a/output/StructureDefinition-ncdth-episode-of-care.xlsx
+++ b/output/StructureDefinition-ncdth-episode-of-care.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$41</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="293">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NCD Thailand EpisodeOfCare Profile</t>
+    <t>NCD TH EpisodeOfCare Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T11:05:10+07:00</t>
+    <t>2022-02-22T23:30:09+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -475,6 +478,184 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
+    <t>EpisodeOfCare.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
     <t>EpisodeOfCare.status</t>
   </si>
   <si>
@@ -485,9 +666,6 @@
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the episode as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>The status of the episode of care.</t>
@@ -518,22 +696,7 @@
     <t>EpisodeOfCare.statusHistory.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>EpisodeOfCare.statusHistory.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>EpisodeOfCare.statusHistory.modifierExtension</t>
@@ -559,10 +722,6 @@
     <t>EpisodeOfCare.statusHistory.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>Duration the EpisodeOfCare was in the specified status</t>
   </si>
   <si>
@@ -570,10 +729,6 @@
   </si>
   <si>
     <t>EpisodeOfCare.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Type/class  - e.g. specialist referral, disease management</t>
@@ -685,10 +840,6 @@
   </si>
   <si>
     <t>EpisodeOfCare.managingOrganization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>Organization that assumes care</t>
@@ -903,6 +1054,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1079,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL33"/>
+  <dimension ref="A1:AL41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1111,11 +1277,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="44.28125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="97.60546875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.11328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.81640625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="41.0625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="35.8046875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1124,7 +1290,7 @@
     <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="102.15234375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1244,7 +1410,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1350,7 +1516,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>84</v>
       </c>
@@ -1458,7 +1624,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>92</v>
       </c>
@@ -1564,7 +1730,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>98</v>
       </c>
@@ -1672,7 +1838,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>104</v>
       </c>
@@ -1780,7 +1946,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>113</v>
       </c>
@@ -1888,7 +2054,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>121</v>
       </c>
@@ -1996,7 +2162,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>129</v>
       </c>
@@ -2104,7 +2270,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>137</v>
       </c>
@@ -2230,7 +2396,7 @@
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
@@ -2320,7 +2486,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>148</v>
       </c>
@@ -2330,7 +2496,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>85</v>
@@ -2339,13 +2505,13 @@
         <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>149</v>
@@ -2353,9 +2519,7 @@
       <c r="L12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>78</v>
@@ -2380,13 +2544,13 @@
         <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>78</v>
@@ -2404,10 +2568,10 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>85</v>
@@ -2416,25 +2580,25 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2453,15 +2617,17 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>78</v>
@@ -2498,16 +2664,16 @@
         <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>157</v>
@@ -2522,21 +2688,21 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2553,22 +2719,26 @@
         <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>78</v>
       </c>
@@ -2592,13 +2762,13 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>78</v>
@@ -2616,7 +2786,7 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -2628,32 +2798,32 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>78</v>
@@ -2662,21 +2832,23 @@
         <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>78</v>
       </c>
@@ -2700,13 +2872,13 @@
         <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>78</v>
@@ -2724,25 +2896,25 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>78</v>
@@ -2750,42 +2922,42 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -2798,7 +2970,7 @@
         <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>78</v>
@@ -2834,25 +3006,25 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>78</v>
@@ -2860,7 +3032,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2868,30 +3040,32 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>78</v>
@@ -2904,7 +3078,7 @@
         <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>78</v>
@@ -2916,13 +3090,13 @@
         <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>78</v>
@@ -2940,10 +3114,10 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>85</v>
@@ -2958,15 +3132,15 @@
         <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2974,7 +3148,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>85</v>
@@ -2986,16 +3160,16 @@
         <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3046,10 +3220,10 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>85</v>
@@ -3064,15 +3238,15 @@
         <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3083,7 +3257,7 @@
         <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>78</v>
@@ -3095,16 +3269,16 @@
         <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3130,13 +3304,13 @@
         <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>78</v>
@@ -3154,13 +3328,13 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>78</v>
@@ -3169,18 +3343,18 @@
         <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3188,30 +3362,32 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>78</v>
@@ -3236,13 +3412,13 @@
         <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>78</v>
@@ -3260,13 +3436,13 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>78</v>
@@ -3275,18 +3451,18 @@
         <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3297,7 +3473,7 @@
         <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>78</v>
@@ -3309,13 +3485,13 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3366,44 +3542,44 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
@@ -3415,17 +3591,15 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>78</v>
@@ -3474,19 +3648,19 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>78</v>
@@ -3498,13 +3672,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3517,26 +3691,24 @@
         <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>78</v>
       </c>
@@ -3584,7 +3756,7 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -3602,47 +3774,51 @@
         <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>78</v>
       </c>
@@ -3690,33 +3866,33 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3724,7 +3900,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>85</v>
@@ -3736,16 +3912,16 @@
         <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3772,13 +3948,13 @@
         <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>78</v>
@@ -3796,10 +3972,10 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>85</v>
@@ -3820,9 +3996,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3830,7 +4006,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>85</v>
@@ -3842,16 +4018,16 @@
         <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3902,10 +4078,10 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>85</v>
@@ -3926,9 +4102,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3936,10 +4112,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>78</v>
@@ -3951,15 +4127,17 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>78</v>
@@ -3984,13 +4162,13 @@
         <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>78</v>
@@ -4008,13 +4186,13 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
@@ -4023,18 +4201,18 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>214</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4045,10 +4223,10 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4057,13 +4235,13 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4114,13 +4292,13 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
@@ -4129,7 +4307,7 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -4138,9 +4316,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4160,16 +4338,16 @@
         <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4220,7 +4398,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -4232,25 +4410,25 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4269,15 +4447,17 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>78</v>
@@ -4326,7 +4506,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>225</v>
+        <v>157</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -4338,53 +4518,57 @@
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>78</v>
       </c>
@@ -4432,44 +4616,44 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>78</v>
@@ -4478,16 +4662,16 @@
         <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4538,13 +4722,13 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>78</v>
@@ -4553,18 +4737,18 @@
         <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4575,7 +4759,7 @@
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -4584,20 +4768,18 @@
         <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>240</v>
+        <v>169</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>78</v>
@@ -4622,13 +4804,13 @@
         <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>78</v>
@@ -4646,13 +4828,13 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
@@ -4670,7 +4852,875 @@
         <v>78</v>
       </c>
     </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:AL41">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI40">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/output/StructureDefinition-ncdth-episode-of-care.xlsx
+++ b/output/StructureDefinition-ncdth-episode-of-care.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NCD TH EpisodeOfCare Profile</t>
+    <t>EpisodeOfCare (NCD TH)</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T23:30:09+07:00</t>
+    <t>2022-02-23T19:35:19+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile สำหรับ EpisodeOfCare resource</t>
+    <t>ใช้จัดกลุ่มของ Encounter ประเภทเดียวกัน เช่น Encounter ทั้งหมดในการดูแลโรคเบาหวาน</t>
   </si>
   <si>
     <t>Purpose</t>
